--- a/TestSuite3.1.xlsx
+++ b/TestSuite3.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testTool\testsuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\selenium-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2EA72C-3E02-4B3B-ADFF-E38E17AEBE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F01D9-E7FB-4CB0-8C68-C36496AD4306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1551E7B-7FB0-49EB-8D2C-45F68FAC6D91}"/>
   </bookViews>
@@ -588,6 +588,30 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,15 +631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -626,21 +641,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -961,7 +961,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A17:XFD30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D18ADE-1CD7-4888-8417-C13C0D1A0339}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,56 +1172,56 @@
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1262,11 +1262,11 @@
       <c r="B9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1275,12 +1275,12 @@
       <c r="B10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="40" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       <c r="B11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="40"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -1305,12 +1305,12 @@
       <c r="B12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="40"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -1319,12 +1319,12 @@
       <c r="B13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1340,7 +1340,7 @@
       <c r="E14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -1349,11 +1349,11 @@
       <c r="B15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,11 +1379,11 @@
       <c r="B17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,11 +1393,11 @@
       <c r="B18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,11 +1407,11 @@
       <c r="B19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       <c r="E20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="39" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       <c r="E21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1480,7 +1480,7 @@
       <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1496,7 +1496,7 @@
       <c r="E24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="31"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1542,7 +1542,7 @@
       <c r="E27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       <c r="B28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="30"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="33"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="39" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1638,12 +1638,12 @@
       <c r="B34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="31"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -1652,12 +1652,12 @@
       <c r="B35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="31"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
@@ -1666,12 +1666,12 @@
       <c r="B36" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -1680,12 +1680,12 @@
       <c r="B37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="31"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -1694,12 +1694,12 @@
       <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="31"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -1717,7 +1717,7 @@
       <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="31"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
@@ -1733,7 +1733,7 @@
       <c r="E40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -1742,12 +1742,12 @@
       <c r="B41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="31"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
@@ -1756,12 +1756,12 @@
       <c r="B42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="31"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
@@ -1775,35 +1775,19 @@
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="31"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="F20:F26"/>
@@ -1820,6 +1804,22 @@
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestSuite3.1.xlsx
+++ b/TestSuite3.1.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\selenium-example\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380428AA-47D6-41EA-9273-5568F932DC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TestSuite" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TestCase-0" sheetId="2" r:id="rId5"/>
+    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase-0" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgj5xmbu6ponr7ySao/iJ2D48vK2A=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -148,18 +157,6 @@
     <t>LoginAs</t>
   </si>
   <si>
-    <t>AUTO.TEST.BO,1,100</t>
-  </si>
-  <si>
-    <t>TopMenu</t>
-  </si>
-  <si>
-    <t>New Application,Credit Card</t>
-  </si>
-  <si>
-    <t>Create Application - CC</t>
-  </si>
-  <si>
     <t>LeftMenu</t>
   </si>
   <si>
@@ -169,12 +166,6 @@
     <t>ChosenSelect</t>
   </si>
   <si>
-    <t>requestNature,03</t>
-  </si>
-  <si>
-    <t>sales,01</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>//select[@name='searchType']</t>
   </si>
   <si>
-    <t>Value#CIF</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -250,102 +238,163 @@
     <t>InputUDFText</t>
   </si>
   <si>
-    <t>ThoiGianLam,11</t>
-  </si>
-  <si>
     <t>//input[@name='excludeIncomeInd'][@value='Y']</t>
   </si>
   <si>
-    <t>//span[normalize-space()='Add new']/parent::a</t>
-  </si>
-  <si>
-    <t>Add main card</t>
-  </si>
-  <si>
-    <t>securedInd,2</t>
-  </si>
-  <si>
-    <t>cardBrand,1</t>
-  </si>
-  <si>
-    <t>productType,35679091</t>
-  </si>
-  <si>
-    <t>campaignCode,102145</t>
-  </si>
-  <si>
-    <t>customerSegment,A001</t>
-  </si>
-  <si>
-    <t>//input[@name='cardEmbossName']</t>
-  </si>
-  <si>
-    <t>DO VAN THUONG</t>
-  </si>
-  <si>
-    <t>//select[@name='paymentMethod']/following-sibling::div/a</t>
-  </si>
-  <si>
-    <t>paymentMethod,0</t>
-  </si>
-  <si>
-    <t>InputUDFAmount</t>
-  </si>
-  <si>
-    <t>HM cấp TD tối đa không TSBĐ cao nhất trong các SPTD không BĐ theo QĐ,VND,1000000</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AUTO.TEST.BO</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>requestNature</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
+    <t>ThoiGianLam</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>campaignCode</t>
+  </si>
+  <si>
+    <t>102145</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>CreateApplication-CC</t>
+  </si>
+  <si>
+    <t>AddMainCard</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Prescreen Eligibility</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Retrieve']/parent::a</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>*Proceed</t>
+  </si>
+  <si>
+    <t>//input[@name='checkCertified'][@value='Y']</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Submit']/parent::a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -361,13 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
-    <border/>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -381,19 +442,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -403,6 +468,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -415,12 +481,14 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -433,177 +501,279 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -793,192 +963,194 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="40.71"/>
-    <col customWidth="1" min="3" max="3" width="60.71"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="35"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="35"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1952,656 +2124,697 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A17:C17"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="59.43"/>
-    <col customWidth="1" min="4" max="4" width="40.71"/>
-    <col customWidth="1" min="5" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31">
+        <v>1</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="42">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="20" t="s">
+      <c r="B12" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="42"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="31">
+        <v>8</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="38">
+        <v>9</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="31">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="38">
+        <v>13</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="39"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="38">
+        <v>14</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A22" s="31">
+        <v>15</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="F23" s="45"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="31">
+        <v>17</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="31">
+        <v>18</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1">
+      <c r="A26" s="31">
+        <v>19</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="38">
+        <v>20</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="42">
+        <v>21</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="31">
+        <v>22</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A32" s="31">
+        <v>23</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="31">
+        <v>24</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="31">
+        <v>25</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="31">
+        <v>26</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="31">
+        <v>12</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="C36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="31">
+        <v>25</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="31">
+        <v>12</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="63">
+        <v>6</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="27" t="s">
+      <c r="C39" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="63"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="63"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="31">
+        <v>25</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="23">
-        <v>13.0</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="23">
-        <v>15.0</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="23">
-        <v>19.0</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="23">
-        <v>21.0</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="23">
-        <v>22.0</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="23">
-        <v>23.0</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="23">
-        <v>24.0</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="23">
-        <v>25.0</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="23">
-        <v>26.0</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="31" t="s">
+      <c r="C41" s="62" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="23">
-        <v>27.0</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="23">
-        <v>28.0</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23">
-        <v>29.0</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23">
-        <v>30.0</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="23">
-        <v>31.0</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="23">
-        <v>32.0</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="23">
-        <v>33.0</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="23">
-        <v>34.0</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="23">
-        <v>35.0</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="23">
-        <v>36.0</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="39" t="s">
+      <c r="D41" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="31">
+        <v>22</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="64"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3535,59 +3748,47 @@
     <row r="979" ht="15.75" customHeight="1"/>
     <row r="980" ht="15.75" customHeight="1"/>
     <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F31:F41"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F18:F24"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F18:F26"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A13:F31 F36 A35:B35 D35:F35 A1:F8 A11:B11 A9:B9 E9:F9 A10:B10 D10:F10 D11:F11 A12 C12:F12 A33:F34 A32:C32 E32:F32" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>